--- a/scrum report.xlsx
+++ b/scrum report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB21C56C-1A4A-459F-9BAA-B9AC5172CC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C56A4-A990-4BBA-9DFE-1CE7114D0A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
   <si>
     <t>Scrum Master</t>
   </si>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t>Test Roles View Controller</t>
+  </si>
+  <si>
+    <t>Tile Ccolors and colors functions</t>
+  </si>
+  <si>
+    <t>queen moves and skips</t>
+  </si>
+  <si>
+    <t>SOUND package</t>
+  </si>
+  <si>
+    <t>Admin page</t>
+  </si>
+  <si>
+    <t>White box</t>
+  </si>
+  <si>
+    <t>Black Box (Junit Package)</t>
   </si>
 </sst>
 </file>
@@ -171,7 +189,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -371,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,9 +427,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,9 +449,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,26 +765,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.08984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.36328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="3.6328125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="39.08203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.9140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.4140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.4140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="7" customWidth="1"/>
     <col min="10" max="10" width="12" style="7" customWidth="1"/>
-    <col min="11" max="11" width="24.453125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="7"/>
+    <col min="11" max="11" width="24.4140625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -810,38 +822,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -849,524 +861,608 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
+      <c r="C5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15" t="s">
+      <c r="C6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15" t="s">
+      <c r="C7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="15" t="s">
+      <c r="C8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
+      <c r="C12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
+      <c r="C13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="C14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="22" t="s">
+      <c r="B18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
+      <c r="B19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="B20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="B21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="B22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="B23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="B24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="B25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
+      <c r="B26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
+      <c r="B27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="B28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="B29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
+      <c r="B30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="B31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="A32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="A33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scrum report.xlsx
+++ b/scrum report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C56A4-A990-4BBA-9DFE-1CE7114D0A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E3204E-E2A2-400A-835A-DD8CDCAA4D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
   <si>
     <t>Scrum Master</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Black Box (Junit Package)</t>
+  </si>
+  <si>
+    <t>Timer and Score</t>
   </si>
 </sst>
 </file>
@@ -765,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1464,6 +1467,24 @@
         <v>30</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/scrum report.xlsx
+++ b/scrum report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E3204E-E2A2-400A-835A-DD8CDCAA4D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681621B9-E96B-4B1B-9249-BE970AB1CF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>Scrum Master</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Build New Game View</t>
   </si>
   <si>
-    <t>Build Roles View</t>
-  </si>
-  <si>
     <t>Test Views</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Code Questions View Controller</t>
   </si>
   <si>
-    <t>Code Roles View Controller</t>
-  </si>
-  <si>
     <t>Test Board View Controller</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>Test Roles View Controller</t>
   </si>
   <si>
-    <t>Tile Ccolors and colors functions</t>
-  </si>
-  <si>
     <t>queen moves and skips</t>
   </si>
   <si>
@@ -182,6 +173,129 @@
   </si>
   <si>
     <t>Timer and Score</t>
+  </si>
+  <si>
+    <t>Build Rules View</t>
+  </si>
+  <si>
+    <t>Build history View</t>
+  </si>
+  <si>
+    <t>Build load view</t>
+  </si>
+  <si>
+    <t>Code Rules View Controller</t>
+  </si>
+  <si>
+    <t>Build play view</t>
+  </si>
+  <si>
+    <t>Build nickName view</t>
+  </si>
+  <si>
+    <t>Build update question view</t>
+  </si>
+  <si>
+    <t>Build winner view</t>
+  </si>
+  <si>
+    <t>Build popQuestion view</t>
+  </si>
+  <si>
+    <t>Tile Colors and colors functions</t>
+  </si>
+  <si>
+    <t>Board-Controller</t>
+  </si>
+  <si>
+    <t>Code history view Controller</t>
+  </si>
+  <si>
+    <t>Code loadGame view Controller</t>
+  </si>
+  <si>
+    <t>Code play view Controller</t>
+  </si>
+  <si>
+    <t>Code nickName view Controller</t>
+  </si>
+  <si>
+    <t>Code add question view Controller</t>
+  </si>
+  <si>
+    <t>Code update question view Controller</t>
+  </si>
+  <si>
+    <t>Code winner view Controller</t>
+  </si>
+  <si>
+    <t>Code popQuestion view Controller</t>
+  </si>
+  <si>
+    <t>Code piece class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red tile </t>
+  </si>
+  <si>
+    <t>Blue tile</t>
+  </si>
+  <si>
+    <t>Tile factory</t>
+  </si>
+  <si>
+    <t>Skips for queen</t>
+  </si>
+  <si>
+    <t>Double eat</t>
+  </si>
+  <si>
+    <t>PlayeGame -Controller</t>
+  </si>
+  <si>
+    <t>PopQ - Controller</t>
+  </si>
+  <si>
+    <t>Build add question view</t>
+  </si>
+  <si>
+    <t>Data class</t>
+  </si>
+  <si>
+    <t>Color Tile Handler class</t>
+  </si>
+  <si>
+    <t>Test Board</t>
+  </si>
+  <si>
+    <t>Test red and blue tiles</t>
+  </si>
+  <si>
+    <t>Test history view controller</t>
+  </si>
+  <si>
+    <t>Test play controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test pop question </t>
+  </si>
+  <si>
+    <t>Test skips for queen</t>
+  </si>
+  <si>
+    <t>Test load game</t>
+  </si>
+  <si>
+    <t>Amneh Hassan &amp; Rawi Jaraisry</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Timer For the Game</t>
+  </si>
+  <si>
+    <t>Timer for player</t>
   </si>
 </sst>
 </file>
@@ -258,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -388,11 +502,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +623,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -768,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,7 +977,7 @@
     <col min="1" max="1" width="39.08203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.9140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.4140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.4140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.9140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" style="7" customWidth="1"/>
@@ -1039,7 +1237,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>16</v>
@@ -1093,7 +1291,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>15</v>
@@ -1111,7 +1309,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>15</v>
@@ -1129,7 +1327,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>15</v>
@@ -1147,7 +1345,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>15</v>
@@ -1235,7 +1433,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>15</v>
@@ -1271,7 +1469,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>15</v>
@@ -1289,7 +1487,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>15</v>
@@ -1307,7 +1505,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>15</v>
@@ -1325,7 +1523,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>15</v>
@@ -1343,7 +1541,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>15</v>
@@ -1361,7 +1559,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>15</v>
@@ -1379,7 +1577,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>15</v>
@@ -1397,7 +1595,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>15</v>
@@ -1415,7 +1613,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>15</v>
@@ -1433,7 +1631,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>15</v>
@@ -1451,7 +1649,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>15</v>
@@ -1469,7 +1667,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>15</v>
@@ -1484,6 +1682,729 @@
       <c r="F38" s="20" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="21"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="21"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="21"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="21"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="21"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="21"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="21"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="21"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="21"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="21"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
